--- a/Sklepy.xlsx
+++ b/Sklepy.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huber\Documents\Studia\Semestr 7\WSYZ\Projekt1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Msem1\wsyz\proj\WSYZProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A150AE9-A2AC-4DA1-ACC2-9DE4302827AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF4880-97C1-4675-8C9B-CD39DB38339A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3585" windowWidth="28800" windowHeight="15555" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="26700" windowHeight="13740" activeTab="1" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Sklepów" sheetId="1" r:id="rId1"/>
+    <sheet name="transportowe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
   <si>
     <t>Nazwa</t>
   </si>
@@ -283,6 +284,84 @@
   </si>
   <si>
     <t>21.0448003</t>
+  </si>
+  <si>
+    <t>browary</t>
+  </si>
+  <si>
+    <t>Raduga</t>
+  </si>
+  <si>
+    <t>Artezan</t>
+  </si>
+  <si>
+    <t>AleBrowar</t>
+  </si>
+  <si>
+    <t>Doctor Brew</t>
+  </si>
+  <si>
+    <t>Szał Piw</t>
+  </si>
+  <si>
+    <t>magazyny</t>
+  </si>
+  <si>
+    <t>Moszna</t>
+  </si>
+  <si>
+    <t>Piaseczno</t>
+  </si>
+  <si>
+    <t>Wiązowna</t>
+  </si>
+  <si>
+    <t>52.25057881907619</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.033215827217354</t>
+  </si>
+  <si>
+    <t>52.21898951222707</t>
+  </si>
+  <si>
+    <t>20.618919508332493</t>
+  </si>
+  <si>
+    <t>54.43750951506798</t>
+  </si>
+  <si>
+    <t>17.7401452411257</t>
+  </si>
+  <si>
+    <t>51.06144896719185</t>
+  </si>
+  <si>
+    <t>17.08349271182876</t>
+  </si>
+  <si>
+    <t>52.35628218525571</t>
+  </si>
+  <si>
+    <t>17.027989085244933</t>
+  </si>
+  <si>
+    <t>50.55527372480151</t>
+  </si>
+  <si>
+    <t>17.755212843653766</t>
+  </si>
+  <si>
+    <t>52.07523583811145</t>
+  </si>
+  <si>
+    <t>21.02359684057877</t>
+  </si>
+  <si>
+    <t>52.170757025386656</t>
+  </si>
+  <si>
+    <t>21.29160601007636</t>
   </si>
 </sst>
 </file>
@@ -637,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB384D0-DC31-425C-886F-0CC811C9BEF4}">
   <dimension ref="B5:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,4 +1094,437 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87648099-3105-43BC-964B-B31603C941FF}">
+  <dimension ref="B4:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sklepy.xlsx
+++ b/Sklepy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Msem1\wsyz\proj\WSYZProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF4880-97C1-4675-8C9B-CD39DB38339A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0547130-0558-4319-B475-D39770FA0BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1860" windowWidth="26700" windowHeight="13740" activeTab="1" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
   <si>
     <t>Nazwa</t>
   </si>
@@ -362,12 +384,22 @@
   </si>
   <si>
     <t>21.29160601007636</t>
+  </si>
+  <si>
+    <t>Wiazowna</t>
+  </si>
+  <si>
+    <t>Pisaeczno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,8 +430,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1098,17 +1132,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87648099-3105-43BC-964B-B31603C941FF}">
-  <dimension ref="B4:E38"/>
+  <dimension ref="B4:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1477,12 +1514,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
@@ -1496,7 +1533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2</v>
       </c>
@@ -1510,7 +1547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
@@ -1524,7 +1561,365 @@
         <v>108</v>
       </c>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2">
+        <v>52.250578819076097</v>
+      </c>
+      <c r="E43" s="2">
+        <v>21.033215827217301</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2">
+        <v>52.218989512226997</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20.6189195083324</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2">
+        <v>54.437509515067902</v>
+      </c>
+      <c r="E45" s="2">
+        <v>17.740145241125699</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2">
+        <v>51.061448967191801</v>
+      </c>
+      <c r="E46" s="2">
+        <v>17.083492711828701</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="e" cm="1">
+        <f t="array" ref="J46">D57Moszn</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="2">
+        <v>52.356282185255701</v>
+      </c>
+      <c r="E47" s="2">
+        <v>17.027989085244901</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J47:J53" si="0">I49*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>50.555273724801502</v>
+      </c>
+      <c r="E51">
+        <v>17.755212843653698</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52">
+        <v>52.075235838111396</v>
+      </c>
+      <c r="E52">
+        <v>21.023596840578701</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>52.1707570253866</v>
+      </c>
+      <c r="E53">
+        <v>21.2916060100763</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57">
+        <f>POWER(I46,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="2">
+        <v>50.555273724801502</v>
+      </c>
+      <c r="E58" s="2">
+        <v>52.075235838111396</v>
+      </c>
+      <c r="F58" s="2">
+        <v>52.1707570253866</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58:J66" si="1">POWER(I47,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="2">
+        <v>17.755212843653698</v>
+      </c>
+      <c r="E59" s="2">
+        <v>21.023596840578701</v>
+      </c>
+      <c r="F59" s="2">
+        <v>21.2916060100763</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="1">
+        <f>SQRT(ABS(POWER(D43-D58,2) - POWER(E43-D59,2)))</f>
+        <v>2.8055737733266772</v>
+      </c>
+      <c r="E69" s="1">
+        <f>SQRT(ABS(POWER(D43-E58,2) - POWER(E43-E59,2)))</f>
+        <v>0.17507894239352051</v>
+      </c>
+      <c r="F69" s="1">
+        <f>SQRT(ABS(POWER(D43-F58,2) - POWER(E43-F59,2)))</f>
+        <v>0.24575184200753916</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="1">
+        <f>SQRT(ABS(POWER(D44-D58,2) - POWER(E44-D59,2)))</f>
+        <v>2.3308508403577393</v>
+      </c>
+      <c r="E70" s="1">
+        <f>SQRT(ABS(POWER(D44-E58,2) - POWER(E44-E59,2)))</f>
+        <v>0.3782837881964396</v>
+      </c>
+      <c r="F70" s="1">
+        <f>SQRT(ABS(POWER(D44-F58,2) - POWER(E44-F59,2)))</f>
+        <v>0.67095510791828483</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="1">
+        <f>SQRT(ABS(POWER(D45-D58,2) - POWER(E45-D59,2)))</f>
+        <v>3.8822065502210767</v>
+      </c>
+      <c r="E71" s="1">
+        <f>SQRT(ABS(POWER(D45-E58,2) - POWER(E45-E59,2)))</f>
+        <v>2.2805081629121329</v>
+      </c>
+      <c r="F71" s="1">
+        <f>SQRT(ABS(POWER(D45-F58,2) - POWER(E45-F59,2)))</f>
+        <v>2.7339909919234953</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="1">
+        <f>SQRT(ABS(POWER(D46-D58,2) - POWER(E46-D59,2)))</f>
+        <v>0.44158188310902713</v>
+      </c>
+      <c r="E72" s="1">
+        <f>SQRT(ABS(POWER(D46-E58,2) - POWER(E46-E59,2)))</f>
+        <v>3.8074475342076424</v>
+      </c>
+      <c r="F72" s="1">
+        <f>SQRT(ABS(POWER(D46-F58,2) - POWER(E46-F59,2)))</f>
+        <v>4.0592675648338803</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="1">
+        <f>SQRT(ABS(POWER(D47-D58,2) - POWER(E47-D59,2)))</f>
+        <v>1.6476580591352643</v>
+      </c>
+      <c r="E73" s="1">
+        <f>SQRT(ABS(POWER(D47-E58,2) - POWER(E47-E59,2)))</f>
+        <v>3.9857112646603561</v>
+      </c>
+      <c r="F73" s="1">
+        <f>SQRT(ABS(POWER(D47-F58,2) - POWER(E47-F59,2)))</f>
+        <v>4.2595785820623506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sklepy.xlsx
+++ b/Sklepy.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Msem1\wsyz\proj\WSYZProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0547130-0558-4319-B475-D39770FA0BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FE7AB-6EFE-43AE-BF55-D3F90C457E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="26700" windowHeight="13740" activeTab="1" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="26700" windowHeight="13740" activeTab="2" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Sklepów" sheetId="1" r:id="rId1"/>
     <sheet name="transportowe" sheetId="2" r:id="rId2"/>
+    <sheet name="przyklady" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
   <si>
     <t>Nazwa</t>
   </si>
@@ -390,6 +391,90 @@
   </si>
   <si>
     <t>Pisaeczno</t>
+  </si>
+  <si>
+    <t>szerokość geo.</t>
+  </si>
+  <si>
+    <t>długość geo.</t>
+  </si>
+  <si>
+    <t>nazwa browaru</t>
+  </si>
+  <si>
+    <t>magazyn</t>
+  </si>
+  <si>
+    <t>zapotrzebowanie</t>
+  </si>
+  <si>
+    <t>mies 1</t>
+  </si>
+  <si>
+    <t>mies 2</t>
+  </si>
+  <si>
+    <t>mies 3</t>
+  </si>
+  <si>
+    <t>9609.1</t>
+  </si>
+  <si>
+    <t>3918.3</t>
+  </si>
+  <si>
+    <t>16646.7</t>
+  </si>
+  <si>
+    <t>AleBrowar  Moszna</t>
+  </si>
+  <si>
+    <t>AleBrowar  Piaseczno</t>
+  </si>
+  <si>
+    <t>AleBrowar  Wiazowna</t>
+  </si>
+  <si>
+    <t>Artezan    Moszna</t>
+  </si>
+  <si>
+    <t>Artezan    Piaseczno</t>
+  </si>
+  <si>
+    <t>Artezan    Wiazowna</t>
+  </si>
+  <si>
+    <t>DoctorBrew Moszna</t>
+  </si>
+  <si>
+    <t>DoctorBrew Piaseczno</t>
+  </si>
+  <si>
+    <t>DoctorBrew Wiazowna</t>
+  </si>
+  <si>
+    <t>Raduga     Moszna</t>
+  </si>
+  <si>
+    <t>Raduga     Piaseczno</t>
+  </si>
+  <si>
+    <t>Raduga     Wiazowna</t>
+  </si>
+  <si>
+    <t>SzalPiw    Moszna</t>
+  </si>
+  <si>
+    <t>SzalPiw    Piaseczno</t>
+  </si>
+  <si>
+    <t>SzalPiw    Wiazowna</t>
+  </si>
+  <si>
+    <t>koszt całkowity</t>
+  </si>
+  <si>
+    <t>optymalizacja transportu</t>
   </si>
 </sst>
 </file>
@@ -397,10 +482,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,16 +494,49 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -426,14 +544,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1134,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87648099-3105-43BC-964B-B31603C941FF}">
   <dimension ref="B4:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:F73"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,21 +1709,27 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>83</v>
+      <c r="C42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>52.250578819076097</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>21.033215827217301</v>
       </c>
     </row>
@@ -1584,13 +1737,13 @@
       <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>52.218989512226997</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>20.6189195083324</v>
       </c>
     </row>
@@ -1598,13 +1751,13 @@
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>54.437509515067902</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>17.740145241125699</v>
       </c>
     </row>
@@ -1612,13 +1765,13 @@
       <c r="B46">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>51.061448967191801</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>17.083492711828701</v>
       </c>
       <c r="I46">
@@ -1633,13 +1786,13 @@
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>52.356282185255701</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>17.027989085244901</v>
       </c>
       <c r="I47">
@@ -1656,13 +1809,19 @@
         <v>4</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J47:J53" si="0">I49*2</f>
+        <f t="shared" ref="J49:J53" si="0">I49*2</f>
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>89</v>
+      <c r="C50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="I50">
         <v>5</v>
@@ -1676,13 +1835,13 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="7">
         <v>50.555273724801502</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>17.755212843653698</v>
       </c>
       <c r="I51">
@@ -1697,13 +1856,13 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="7">
         <v>52.075235838111396</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="7">
         <v>21.023596840578701</v>
       </c>
       <c r="I52">
@@ -1718,13 +1877,13 @@
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
         <v>52.1707570253866</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="7">
         <v>21.2916060100763</v>
       </c>
       <c r="I53">
@@ -1751,13 +1910,13 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>50.555273724801502</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>52.075235838111396</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>52.1707570253866</v>
       </c>
       <c r="J58">
@@ -1766,13 +1925,13 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>17.755212843653698</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>21.023596840578701</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>21.2916060100763</v>
       </c>
       <c r="J59">
@@ -1823,97 +1982,98 @@
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+      <c r="C69" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="7">
         <f>SQRT(ABS(POWER(D43-D58,2) - POWER(E43-D59,2)))</f>
         <v>2.8055737733266772</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="7">
         <f>SQRT(ABS(POWER(D43-E58,2) - POWER(E43-E59,2)))</f>
         <v>0.17507894239352051</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="7">
         <f>SQRT(ABS(POWER(D43-F58,2) - POWER(E43-F59,2)))</f>
         <v>0.24575184200753916</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="C70" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="7">
         <f>SQRT(ABS(POWER(D44-D58,2) - POWER(E44-D59,2)))</f>
         <v>2.3308508403577393</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="7">
         <f>SQRT(ABS(POWER(D44-E58,2) - POWER(E44-E59,2)))</f>
         <v>0.3782837881964396</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="7">
         <f>SQRT(ABS(POWER(D44-F58,2) - POWER(E44-F59,2)))</f>
         <v>0.67095510791828483</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="C71" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="7">
         <f>SQRT(ABS(POWER(D45-D58,2) - POWER(E45-D59,2)))</f>
         <v>3.8822065502210767</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="7">
         <f>SQRT(ABS(POWER(D45-E58,2) - POWER(E45-E59,2)))</f>
         <v>2.2805081629121329</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="7">
         <f>SQRT(ABS(POWER(D45-F58,2) - POWER(E45-F59,2)))</f>
         <v>2.7339909919234953</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+      <c r="C72" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="7">
         <f>SQRT(ABS(POWER(D46-D58,2) - POWER(E46-D59,2)))</f>
         <v>0.44158188310902713</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="7">
         <f>SQRT(ABS(POWER(D46-E58,2) - POWER(E46-E59,2)))</f>
         <v>3.8074475342076424</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="7">
         <f>SQRT(ABS(POWER(D46-F58,2) - POWER(E46-F59,2)))</f>
         <v>4.0592675648338803</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="C73" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="7">
         <f>SQRT(ABS(POWER(D47-D58,2) - POWER(E47-D59,2)))</f>
         <v>1.6476580591352643</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="7">
         <f>SQRT(ABS(POWER(D47-E58,2) - POWER(E47-E59,2)))</f>
         <v>3.9857112646603561</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="7">
         <f>SQRT(ABS(POWER(D47-F58,2) - POWER(E47-F59,2)))</f>
         <v>4.2595785820623506</v>
       </c>
@@ -1922,4 +2082,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8BD944-0F08-4B9F-A101-F7706D75AF78}">
+  <dimension ref="B4:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sklepy.xlsx
+++ b/Sklepy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Msem1\wsyz\proj\WSYZProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FE7AB-6EFE-43AE-BF55-D3F90C457E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BE7227-AC51-449D-A074-84E18354D8F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="26700" windowHeight="13740" activeTab="2" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="26700" windowHeight="13740" activeTab="1" xr2:uid="{DD5BBE78-C09E-4CB7-9341-B7A9AAACD983}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Sklepów" sheetId="1" r:id="rId1"/>
@@ -34,44 +34,13 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
   <si>
     <t>Nazwa</t>
   </si>
   <si>
     <t>Adres</t>
-  </si>
-  <si>
-    <t>Położenie od Magazynu A</t>
-  </si>
-  <si>
-    <t>Położenie od magazynu B</t>
-  </si>
-  <si>
-    <t>Położenie od magazynu C</t>
   </si>
   <si>
     <t>Piwny Kraft</t>
@@ -573,11 +542,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB384D0-DC31-425C-886F-0CC811C9BEF4}">
-  <dimension ref="B5:L25"/>
+  <dimension ref="B5:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F25"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +878,7 @@
     <col min="6" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -917,206 +886,197 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1124,16 +1084,16 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1141,16 +1101,16 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1158,16 +1118,16 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1175,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1192,16 +1152,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1209,16 +1169,16 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1226,16 +1186,16 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1243,16 +1203,16 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1260,16 +1220,16 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1279,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87648099-3105-43BC-964B-B31603C941FF}">
-  <dimension ref="B4:J73"/>
+  <dimension ref="B4:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:F73"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1311,13 +1271,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1325,13 +1285,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1339,13 +1299,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1353,13 +1313,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1367,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1381,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1395,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1409,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1423,13 +1383,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1437,13 +1397,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -1451,13 +1411,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -1465,13 +1425,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1479,13 +1439,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1493,13 +1453,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1507,13 +1467,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1521,13 +1481,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1535,13 +1495,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1549,13 +1509,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1563,13 +1523,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1577,18 +1537,18 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1596,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1610,13 +1570,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1624,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1638,13 +1598,13 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1652,79 +1612,79 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3">
         <v>52.250578819076097</v>
@@ -1733,12 +1693,12 @@
         <v>21.033215827217301</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D44" s="3">
         <v>52.218989512226997</v>
@@ -1747,12 +1707,12 @@
         <v>20.6189195083324</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D45" s="3">
         <v>54.437509515067902</v>
@@ -1761,12 +1721,12 @@
         <v>17.740145241125699</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3">
         <v>51.061448967191801</v>
@@ -1774,20 +1734,13 @@
       <c r="E46" s="3">
         <v>17.083492711828701</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="e" cm="1">
-        <f t="array" ref="J46">D57Moszn</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3">
         <v>52.356282185255701</v>
@@ -1795,48 +1748,24 @@
       <c r="E47" s="3">
         <v>17.027989085244901</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49">
-        <f t="shared" ref="J49:J53" si="0">I49*2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D51" s="7">
         <v>50.555273724801502</v>
@@ -1844,20 +1773,13 @@
       <c r="E51" s="7">
         <v>17.755212843653698</v>
       </c>
-      <c r="I51">
-        <v>6</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D52" s="7">
         <v>52.075235838111396</v>
@@ -1865,20 +1787,13 @@
       <c r="E52" s="7">
         <v>21.023596840578701</v>
       </c>
-      <c r="I52">
-        <v>7</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" s="7">
         <v>52.1707570253866</v>
@@ -1886,30 +1801,19 @@
       <c r="E53" s="7">
         <v>21.2916060100763</v>
       </c>
-      <c r="I53">
-        <v>8</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
-      </c>
-      <c r="J57">
-        <f>POWER(I46,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D58" s="1">
         <v>50.555273724801502</v>
       </c>
@@ -1919,12 +1823,8 @@
       <c r="F58" s="1">
         <v>52.1707570253866</v>
       </c>
-      <c r="J58">
-        <f t="shared" ref="J58:J66" si="1">POWER(I47,2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
         <v>17.755212843653698</v>
       </c>
@@ -1934,68 +1834,22 @@
       <c r="F59" s="1">
         <v>21.2916060100763</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J61">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J62">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J63">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J64">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" s="7">
         <f>SQRT(ABS(POWER(D43-D58,2) - POWER(E43-D59,2)))</f>
@@ -2010,9 +1864,9 @@
         <v>0.24575184200753916</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D70" s="7">
         <f>SQRT(ABS(POWER(D44-D58,2) - POWER(E44-D59,2)))</f>
@@ -2027,9 +1881,9 @@
         <v>0.67095510791828483</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D71" s="7">
         <f>SQRT(ABS(POWER(D45-D58,2) - POWER(E45-D59,2)))</f>
@@ -2044,9 +1898,9 @@
         <v>2.7339909919234953</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D72" s="7">
         <f>SQRT(ABS(POWER(D46-D58,2) - POWER(E46-D59,2)))</f>
@@ -2061,9 +1915,9 @@
         <v>4.0592675648338803</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D73" s="7">
         <f>SQRT(ABS(POWER(D47-D58,2) - POWER(E47-D59,2)))</f>
@@ -2088,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8BD944-0F08-4B9F-A101-F7706D75AF78}">
   <dimension ref="B4:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,27 +1956,27 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>118</v>
+      <c r="C5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>90</v>
+      <c r="B6" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -2135,8 +1989,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>91</v>
+      <c r="B7" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="2">
         <v>8</v>
@@ -2149,8 +2003,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>109</v>
+      <c r="B8" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -2164,7 +2018,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2172,7 +2026,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -2186,7 +2040,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -2200,7 +2054,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2214,7 +2068,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2228,7 +2082,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -2242,7 +2096,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2256,7 +2110,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -2270,7 +2124,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -2284,7 +2138,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2298,7 +2152,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2312,7 +2166,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -2326,7 +2180,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -2340,7 +2194,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -2354,7 +2208,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -2368,7 +2222,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -2381,17 +2235,17 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>137</v>
+      <c r="B27" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
